--- a/results/correlation/language-inference/lalor/human+machine_3/all_correlations.xlsx
+++ b/results/correlation/language-inference/lalor/human+machine_3/all_correlations.xlsx
@@ -436,36 +436,36 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>average_accuracy</t>
+          <t>diff_score</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>confidence</t>
+          <t>entropy</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>average_accuracy</t>
+          <t>diff_score</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006889796187385638</v>
+        <v>0.404601243810543</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>confidence</t>
+          <t>entropy</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.006889796187385638</v>
+        <v>0.404601243810543</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
